--- a/types/ellipse.xlsx
+++ b/types/ellipse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,36 +496,36 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>770</v>
+        <v>58</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>142.37</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -537,13 +537,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2150</v>
+        <v>75</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>33.58</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -555,13 +555,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2180</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9</v>
+        <v>0.51</v>
       </c>
       <c r="C5" t="n">
-        <v>239.4</v>
+        <v>288.11</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -573,13 +573,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2210</v>
+        <v>125</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>0.46</v>
       </c>
       <c r="C6" t="n">
-        <v>239.4</v>
+        <v>199.57</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -591,13 +591,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2240</v>
+        <v>150</v>
       </c>
       <c r="B7" t="n">
-        <v>2.7</v>
+        <v>0.42</v>
       </c>
       <c r="C7" t="n">
-        <v>239.4</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -609,13 +609,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2270</v>
+        <v>175</v>
       </c>
       <c r="B8" t="n">
-        <v>3.6</v>
+        <v>0.53</v>
       </c>
       <c r="C8" t="n">
-        <v>239.4</v>
+        <v>20.83</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -627,13 +627,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2300</v>
+        <v>200</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>0.51</v>
       </c>
       <c r="C9" t="n">
-        <v>239.4</v>
+        <v>327.95</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -645,13 +645,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2330</v>
+        <v>225</v>
       </c>
       <c r="B10" t="n">
-        <v>5.4</v>
+        <v>0.49</v>
       </c>
       <c r="C10" t="n">
-        <v>239.4</v>
+        <v>283.26</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -663,13 +663,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2360</v>
+        <v>250</v>
       </c>
       <c r="B11" t="n">
-        <v>6.3</v>
+        <v>0.43</v>
       </c>
       <c r="C11" t="n">
-        <v>239.4</v>
+        <v>236.95</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -681,13 +681,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2390</v>
+        <v>275</v>
       </c>
       <c r="B12" t="n">
-        <v>7.2</v>
+        <v>0.25</v>
       </c>
       <c r="C12" t="n">
-        <v>239.4</v>
+        <v>143.68</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -699,13 +699,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2420</v>
+        <v>300</v>
       </c>
       <c r="B13" t="n">
-        <v>8.1</v>
+        <v>0.39</v>
       </c>
       <c r="C13" t="n">
-        <v>239.4</v>
+        <v>53.48</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -717,13 +717,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2450</v>
+        <v>325</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>0.49</v>
       </c>
       <c r="C14" t="n">
-        <v>239.4</v>
+        <v>314.37</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -735,13 +735,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2480</v>
+        <v>350</v>
       </c>
       <c r="B15" t="n">
-        <v>9.9</v>
+        <v>0.3</v>
       </c>
       <c r="C15" t="n">
-        <v>239.4</v>
+        <v>213.29</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -753,13 +753,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2510</v>
+        <v>375</v>
       </c>
       <c r="B16" t="n">
-        <v>10.8</v>
+        <v>0.39</v>
       </c>
       <c r="C16" t="n">
-        <v>239.4</v>
+        <v>62.24</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -771,13 +771,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2540</v>
+        <v>400</v>
       </c>
       <c r="B17" t="n">
-        <v>11.7</v>
+        <v>0.54</v>
       </c>
       <c r="C17" t="n">
-        <v>239.4</v>
+        <v>341.3</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -789,13 +789,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2570</v>
+        <v>425</v>
       </c>
       <c r="B18" t="n">
-        <v>12.6</v>
+        <v>0.49</v>
       </c>
       <c r="C18" t="n">
-        <v>239.4</v>
+        <v>269</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -807,13 +807,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2600</v>
+        <v>450</v>
       </c>
       <c r="B19" t="n">
-        <v>13.5</v>
+        <v>0.21</v>
       </c>
       <c r="C19" t="n">
-        <v>239.4</v>
+        <v>132.43</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -825,13 +825,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2630</v>
+        <v>475</v>
       </c>
       <c r="B20" t="n">
-        <v>14.4</v>
+        <v>0.63</v>
       </c>
       <c r="C20" t="n">
-        <v>239.4</v>
+        <v>21.87</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -843,13 +843,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2660</v>
+        <v>500</v>
       </c>
       <c r="B21" t="n">
-        <v>15.3</v>
+        <v>0.73</v>
       </c>
       <c r="C21" t="n">
-        <v>239.4</v>
+        <v>352.32</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -861,13 +861,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2690</v>
+        <v>525</v>
       </c>
       <c r="B22" t="n">
-        <v>16.2</v>
+        <v>0.26</v>
       </c>
       <c r="C22" t="n">
-        <v>239.4</v>
+        <v>278.03</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -879,13 +879,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2720</v>
+        <v>550</v>
       </c>
       <c r="B23" t="n">
-        <v>17.1</v>
+        <v>0.37</v>
       </c>
       <c r="C23" t="n">
-        <v>239.4</v>
+        <v>184.57</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -897,13 +897,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2750</v>
+        <v>575</v>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>0.58</v>
       </c>
       <c r="C24" t="n">
-        <v>239.4</v>
+        <v>103.81</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -915,13 +915,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2780</v>
+        <v>600</v>
       </c>
       <c r="B25" t="n">
-        <v>18.9</v>
+        <v>1.04</v>
       </c>
       <c r="C25" t="n">
-        <v>239.4</v>
+        <v>53.38</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -933,13 +933,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2810</v>
+        <v>625</v>
       </c>
       <c r="B26" t="n">
-        <v>19.8</v>
+        <v>0.31</v>
       </c>
       <c r="C26" t="n">
-        <v>239.4</v>
+        <v>78.11</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -951,13 +951,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2840</v>
+        <v>650</v>
       </c>
       <c r="B27" t="n">
-        <v>20.7</v>
+        <v>0.48</v>
       </c>
       <c r="C27" t="n">
-        <v>239.4</v>
+        <v>94.44</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -969,13 +969,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2845.7</v>
+        <v>675</v>
       </c>
       <c r="B28" t="n">
-        <v>20.87</v>
+        <v>0.95</v>
       </c>
       <c r="C28" t="n">
-        <v>239.4</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -987,13 +987,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2855.96</v>
+        <v>700</v>
       </c>
       <c r="B29" t="n">
-        <v>20.87</v>
+        <v>0.74</v>
       </c>
       <c r="C29" t="n">
-        <v>239.4</v>
+        <v>34.15</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1005,13 +1005,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2870</v>
+        <v>725</v>
       </c>
       <c r="B30" t="n">
-        <v>20.87</v>
+        <v>0.29</v>
       </c>
       <c r="C30" t="n">
-        <v>239.4</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2877.36</v>
+        <v>750</v>
       </c>
       <c r="B31" t="n">
-        <v>20.87</v>
+        <v>0.64</v>
       </c>
       <c r="C31" t="n">
-        <v>239.4</v>
+        <v>89.7</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2900</v>
+        <v>775</v>
       </c>
       <c r="B32" t="n">
-        <v>20.87</v>
+        <v>0.68</v>
       </c>
       <c r="C32" t="n">
-        <v>239.4</v>
+        <v>45.1</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2930</v>
+        <v>840</v>
       </c>
       <c r="B33" t="n">
-        <v>20.87</v>
+        <v>0.25</v>
       </c>
       <c r="C33" t="n">
-        <v>239.4</v>
+        <v>332.41</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2960</v>
+        <v>953</v>
       </c>
       <c r="B34" t="n">
-        <v>20.87</v>
+        <v>0.24</v>
       </c>
       <c r="C34" t="n">
-        <v>239.4</v>
+        <v>55.34</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2990</v>
+        <v>1067</v>
       </c>
       <c r="B35" t="n">
-        <v>20.87</v>
+        <v>0.32</v>
       </c>
       <c r="C35" t="n">
-        <v>239.4</v>
+        <v>103.56</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -1113,13 +1113,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3020</v>
+        <v>1181</v>
       </c>
       <c r="B36" t="n">
-        <v>20.87</v>
+        <v>0.6</v>
       </c>
       <c r="C36" t="n">
-        <v>239.4</v>
+        <v>220.98</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3050</v>
+        <v>1297</v>
       </c>
       <c r="B37" t="n">
-        <v>20.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>239.4</v>
+        <v>262.83</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3080</v>
+        <v>1410</v>
       </c>
       <c r="B38" t="n">
-        <v>20.87</v>
+        <v>1.07</v>
       </c>
       <c r="C38" t="n">
-        <v>239.4</v>
+        <v>274.75</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3110</v>
+        <v>1524</v>
       </c>
       <c r="B39" t="n">
-        <v>20.87</v>
+        <v>0.39</v>
       </c>
       <c r="C39" t="n">
-        <v>239.4</v>
+        <v>262.01</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3140</v>
+        <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>20.87</v>
+        <v>1.56</v>
       </c>
       <c r="C40" t="n">
-        <v>239.4</v>
+        <v>307.4</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3170</v>
+        <v>1752</v>
       </c>
       <c r="B41" t="n">
-        <v>20.87</v>
+        <v>0.88</v>
       </c>
       <c r="C41" t="n">
-        <v>239.4</v>
+        <v>312</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3200</v>
+        <v>1866</v>
       </c>
       <c r="B42" t="n">
-        <v>20.87</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>239.4</v>
+        <v>317</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1239,13 +1239,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3230</v>
+        <v>1980</v>
       </c>
       <c r="B43" t="n">
-        <v>20.87</v>
+        <v>1.22</v>
       </c>
       <c r="C43" t="n">
-        <v>239.4</v>
+        <v>319.3</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3260</v>
+        <v>2094</v>
       </c>
       <c r="B44" t="n">
-        <v>20.87</v>
+        <v>1.57</v>
       </c>
       <c r="C44" t="n">
-        <v>239.4</v>
+        <v>323.63</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3290</v>
+        <v>2135</v>
       </c>
       <c r="B45" t="n">
-        <v>20.87</v>
+        <v>2.21</v>
       </c>
       <c r="C45" t="n">
-        <v>239.4</v>
+        <v>327.84</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
@@ -1293,13 +1293,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3320</v>
+        <v>2149</v>
       </c>
       <c r="B46" t="n">
-        <v>20.87</v>
+        <v>2.21</v>
       </c>
       <c r="C46" t="n">
-        <v>239.4</v>
+        <v>326.33</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3350</v>
+        <v>2158.5</v>
       </c>
       <c r="B47" t="n">
-        <v>20.87</v>
+        <v>3.39</v>
       </c>
       <c r="C47" t="n">
-        <v>239.4</v>
+        <v>323.57</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3380</v>
+        <v>2168</v>
       </c>
       <c r="B48" t="n">
-        <v>20.87</v>
+        <v>3.73</v>
       </c>
       <c r="C48" t="n">
-        <v>239.4</v>
+        <v>312.92</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
@@ -1347,13 +1347,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3410</v>
+        <v>2177.5</v>
       </c>
       <c r="B49" t="n">
-        <v>20.87</v>
+        <v>4.26</v>
       </c>
       <c r="C49" t="n">
-        <v>239.4</v>
+        <v>314.76</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3440</v>
+        <v>2206</v>
       </c>
       <c r="B50" t="n">
-        <v>20.87</v>
+        <v>4.82</v>
       </c>
       <c r="C50" t="n">
-        <v>239.4</v>
+        <v>304.49</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -1383,13 +1383,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3470</v>
+        <v>2234.7</v>
       </c>
       <c r="B51" t="n">
-        <v>20.87</v>
+        <v>5.14</v>
       </c>
       <c r="C51" t="n">
-        <v>239.4</v>
+        <v>298.08</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3500</v>
+        <v>2263</v>
       </c>
       <c r="B52" t="n">
-        <v>20.87</v>
+        <v>4.96</v>
       </c>
       <c r="C52" t="n">
-        <v>239.4</v>
+        <v>296.19</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -1419,13 +1419,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3530</v>
+        <v>2272.5</v>
       </c>
       <c r="B53" t="n">
-        <v>20.87</v>
+        <v>5.29</v>
       </c>
       <c r="C53" t="n">
-        <v>239.4</v>
+        <v>292.23</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3560</v>
+        <v>2284.5</v>
       </c>
       <c r="B54" t="n">
-        <v>20.87</v>
+        <v>5.7</v>
       </c>
       <c r="C54" t="n">
-        <v>239.4</v>
+        <v>289.08</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3590</v>
+        <v>2290.52</v>
       </c>
       <c r="B55" t="n">
-        <v>20.87</v>
+        <v>5.75</v>
       </c>
       <c r="C55" t="n">
-        <v>239.4</v>
+        <v>288.73</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3620</v>
+        <v>2291.5</v>
       </c>
       <c r="B56" t="n">
-        <v>20.87</v>
+        <v>5.87</v>
       </c>
       <c r="C56" t="n">
-        <v>239.4</v>
+        <v>288.45</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
@@ -1491,13 +1491,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3647.92</v>
+        <v>2301</v>
       </c>
       <c r="B57" t="n">
-        <v>20.87</v>
+        <v>6.04</v>
       </c>
       <c r="C57" t="n">
-        <v>239.4</v>
+        <v>283.38</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3650</v>
+        <v>2310.65</v>
       </c>
       <c r="B58" t="n">
-        <v>20.87</v>
+        <v>6.39</v>
       </c>
       <c r="C58" t="n">
-        <v>239.4</v>
+        <v>281.02</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3680</v>
+        <v>2320</v>
       </c>
       <c r="B59" t="n">
-        <v>20.87</v>
+        <v>6.59</v>
       </c>
       <c r="C59" t="n">
-        <v>239.4</v>
+        <v>278.79</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3710</v>
+        <v>2331</v>
       </c>
       <c r="B60" t="n">
-        <v>20.87</v>
+        <v>7.14</v>
       </c>
       <c r="C60" t="n">
-        <v>239.4</v>
+        <v>273.55</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3740</v>
+        <v>2348</v>
       </c>
       <c r="B61" t="n">
-        <v>20.87</v>
+        <v>7.57</v>
       </c>
       <c r="C61" t="n">
-        <v>239.4</v>
+        <v>267.65</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
@@ -1581,13 +1581,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3770</v>
+        <v>2358.27</v>
       </c>
       <c r="B62" t="n">
-        <v>20.87</v>
+        <v>7.65</v>
       </c>
       <c r="C62" t="n">
-        <v>239.4</v>
+        <v>263.23</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
@@ -1599,13 +1599,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3800</v>
+        <v>2368</v>
       </c>
       <c r="B63" t="n">
-        <v>20.87</v>
+        <v>8.1</v>
       </c>
       <c r="C63" t="n">
-        <v>239.4</v>
+        <v>260.76</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3830</v>
+        <v>2377.4</v>
       </c>
       <c r="B64" t="n">
-        <v>20.87</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>239.4</v>
+        <v>257.32</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
@@ -1635,13 +1635,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3860</v>
+        <v>2389</v>
       </c>
       <c r="B65" t="n">
-        <v>20.87</v>
+        <v>8.43</v>
       </c>
       <c r="C65" t="n">
-        <v>239.4</v>
+        <v>254.1</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3883.37</v>
+        <v>2405</v>
       </c>
       <c r="B66" t="n">
-        <v>20.87</v>
+        <v>8.98</v>
       </c>
       <c r="C66" t="n">
-        <v>239.4</v>
+        <v>250.05</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
@@ -1669,6 +1669,1284 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
     </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2416</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="C67" t="n">
+        <v>248.03</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2425</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="C68" t="n">
+        <v>244.55</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2434.5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>239.84</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2444</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C70" t="n">
+        <v>236.91</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2452.35</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>235.89</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2461.87</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C72" t="n">
+        <v>235.14</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>234.71</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2490</v>
+      </c>
+      <c r="B74" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="C74" t="n">
+        <v>230.45</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B75" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="C75" t="n">
+        <v>229.01</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2519</v>
+      </c>
+      <c r="B76" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="C76" t="n">
+        <v>229.24</v>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2533</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C77" t="n">
+        <v>228.73</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2547.76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C78" t="n">
+        <v>227.83</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B79" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C79" t="n">
+        <v>228.1</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2576.3</v>
+      </c>
+      <c r="B80" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="C80" t="n">
+        <v>227.04</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2586</v>
+      </c>
+      <c r="B81" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="C81" t="n">
+        <v>226.22</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2605</v>
+      </c>
+      <c r="B82" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="C82" t="n">
+        <v>225.81</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2619</v>
+      </c>
+      <c r="B83" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="C83" t="n">
+        <v>226.49</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2633.41</v>
+      </c>
+      <c r="B84" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="C84" t="n">
+        <v>226.62</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2652.4</v>
+      </c>
+      <c r="B85" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="C85" t="n">
+        <v>226.79</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2662</v>
+      </c>
+      <c r="B86" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="C86" t="n">
+        <v>227.42</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2671.5</v>
+      </c>
+      <c r="B87" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="C87" t="n">
+        <v>226.79</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2690.5</v>
+      </c>
+      <c r="B88" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="C88" t="n">
+        <v>226.76</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2709.5</v>
+      </c>
+      <c r="B89" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="C89" t="n">
+        <v>229.96</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2719.15</v>
+      </c>
+      <c r="B90" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="C90" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2728.63</v>
+      </c>
+      <c r="B91" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>229.31</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2738.24</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="C92" t="n">
+        <v>228.85</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2747.76</v>
+      </c>
+      <c r="B93" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="C93" t="n">
+        <v>228.76</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2757.29</v>
+      </c>
+      <c r="B94" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>228.98</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2766.8</v>
+      </c>
+      <c r="B95" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="C95" t="n">
+        <v>229.11</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2776.3</v>
+      </c>
+      <c r="B96" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="C96" t="n">
+        <v>230.07</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2786</v>
+      </c>
+      <c r="B97" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="C97" t="n">
+        <v>230.15</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2795.5</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19.04</v>
+      </c>
+      <c r="C98" t="n">
+        <v>230.31</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2805</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="C99" t="n">
+        <v>230.01</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2822</v>
+      </c>
+      <c r="B100" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="C100" t="n">
+        <v>230.29</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2832</v>
+      </c>
+      <c r="B101" t="n">
+        <v>19</v>
+      </c>
+      <c r="C101" t="n">
+        <v>231.63</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2843</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="C102" t="n">
+        <v>235.31</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2854</v>
+      </c>
+      <c r="B103" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="C103" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2861</v>
+      </c>
+      <c r="B104" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="C104" t="n">
+        <v>240.07</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2871</v>
+      </c>
+      <c r="B105" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="C105" t="n">
+        <v>242.75</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2880</v>
+      </c>
+      <c r="B106" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>245.41</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2888</v>
+      </c>
+      <c r="B107" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="C107" t="n">
+        <v>247.84</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B108" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="C108" t="n">
+        <v>247.65</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2910</v>
+      </c>
+      <c r="B109" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="C109" t="n">
+        <v>245.98</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2920</v>
+      </c>
+      <c r="B110" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="C110" t="n">
+        <v>244.85</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2928.4</v>
+      </c>
+      <c r="B111" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="C111" t="n">
+        <v>244.68</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2938</v>
+      </c>
+      <c r="B112" t="n">
+        <v>25</v>
+      </c>
+      <c r="C112" t="n">
+        <v>243.95</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2946</v>
+      </c>
+      <c r="B113" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C113" t="n">
+        <v>244.81</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2964</v>
+      </c>
+      <c r="B114" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>245.01</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2981</v>
+      </c>
+      <c r="B115" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="C115" t="n">
+        <v>244.12</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2987</v>
+      </c>
+      <c r="B116" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>244.21</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2995</v>
+      </c>
+      <c r="B117" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>244.14</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3004</v>
+      </c>
+      <c r="B118" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="C118" t="n">
+        <v>244.44</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3060.9</v>
+      </c>
+      <c r="B119" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="C119" t="n">
+        <v>244.12</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3117.18</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="C120" t="n">
+        <v>244.94</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3173.85</v>
+      </c>
+      <c r="B121" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3229.82</v>
+      </c>
+      <c r="B122" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>246.18</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3286.68</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="C123" t="n">
+        <v>247.61</v>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3318</v>
+      </c>
+      <c r="B124" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="C124" t="n">
+        <v>246.84</v>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3327</v>
+      </c>
+      <c r="B125" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="C125" t="n">
+        <v>244.29</v>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B126" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="C126" t="n">
+        <v>244.33</v>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3353</v>
+      </c>
+      <c r="B127" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>3365</v>
+      </c>
+      <c r="B128" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="C128" t="n">
+        <v>243.87</v>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>3376</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="C129" t="n">
+        <v>244.37</v>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>3384.09</v>
+      </c>
+      <c r="B130" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="C130" t="n">
+        <v>244.58</v>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>3391.33</v>
+      </c>
+      <c r="B131" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="C131" t="n">
+        <v>244.48</v>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>3419</v>
+      </c>
+      <c r="B132" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="C132" t="n">
+        <v>244.53</v>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3538</v>
+      </c>
+      <c r="B133" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C133" t="n">
+        <v>247.64</v>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3543</v>
+      </c>
+      <c r="B134" t="n">
+        <v>16</v>
+      </c>
+      <c r="C134" t="n">
+        <v>247.48</v>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>3552.8</v>
+      </c>
+      <c r="B135" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="C135" t="n">
+        <v>249.09</v>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3562.3</v>
+      </c>
+      <c r="B136" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="C136" t="n">
+        <v>250.06</v>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>3570.8</v>
+      </c>
+      <c r="B137" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="C137" t="n">
+        <v>250.67</v>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/types/ellipse.xlsx
+++ b/types/ellipse.xlsx
@@ -505,16 +505,16 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
